--- a/Upwork POC/Upwork POC_Excel.xlsx
+++ b/Upwork POC/Upwork POC_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Zhang\Desktop\Upwork POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C5A604-EF16-421C-945F-5D808B7AE56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3583878-0C83-4724-BCFF-92D62023D57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6933E0E4-041B-4FB4-AD17-ADF256695783}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{6933E0E4-041B-4FB4-AD17-ADF256695783}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts 1" sheetId="2" r:id="rId1"/>
@@ -16763,7 +16763,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17017,7 +17017,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
